--- a/TextPad 7/Koopia failist Bug report template.xlsx
+++ b/TextPad 7/Koopia failist Bug report template.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20389"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\opilane\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\opilane\projects\TextPad 7\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D90B7F45-987E-4D9A-A7F7-22197585A382}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="19035" windowHeight="10995" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="12855" tabRatio="804" firstSheet="20" activeTab="28" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Report" sheetId="11" r:id="rId1"/>
@@ -25,13 +26,29 @@
     <sheet name="Bug 8" sheetId="8" r:id="rId11"/>
     <sheet name="Bug 9" sheetId="9" r:id="rId12"/>
     <sheet name="Bug 10" sheetId="10" r:id="rId13"/>
+    <sheet name="Bug 11" sheetId="14" r:id="rId14"/>
+    <sheet name="Bug 12" sheetId="15" r:id="rId15"/>
+    <sheet name="Bug 13" sheetId="16" r:id="rId16"/>
+    <sheet name="Bug 14" sheetId="17" r:id="rId17"/>
+    <sheet name="Bug 15" sheetId="18" r:id="rId18"/>
+    <sheet name="Bug 16" sheetId="19" r:id="rId19"/>
+    <sheet name="Bug 17" sheetId="20" r:id="rId20"/>
+    <sheet name="Bug 18" sheetId="21" r:id="rId21"/>
+    <sheet name="Bug 19" sheetId="22" r:id="rId22"/>
+    <sheet name="Bug 20" sheetId="23" r:id="rId23"/>
+    <sheet name="Bug 21" sheetId="24" r:id="rId24"/>
+    <sheet name="Bug 22" sheetId="25" r:id="rId25"/>
+    <sheet name="Bug 23" sheetId="26" r:id="rId26"/>
+    <sheet name="Bug 24" sheetId="27" r:id="rId27"/>
+    <sheet name="Bug 25" sheetId="28" r:id="rId28"/>
+    <sheet name="Bug 26" sheetId="29" r:id="rId29"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="94">
   <si>
     <t>Product:</t>
   </si>
@@ -182,41 +199,316 @@
     <t>Truncation "Browse..." in "Manage Files" dialog.</t>
   </si>
   <si>
+    <t>Misalignment "Files" in "Manage Files" dialog.</t>
+  </si>
+  <si>
+    <t>Misalignment "Working Folder" in "Manage Files" dialog.</t>
+  </si>
+  <si>
     <t>Steps to reproduce: 
 1. Launch 'TextPad'
 2. Go to 'File' -&gt; 'Manage Files…'
-3. In opened 'Manage Files' dialog
-4. "Browse.." button have some truncation
+3. Textbox is too close to "Files".
+Expected result:
+There are no misalignment
+Actual result:
+There are misalignment</t>
+  </si>
+  <si>
+    <t>Steps to reproduce: 
+1. Launch 'TextPad'
+2. Go to 'File' -&gt; 'Manage Files…'
+3. "Browse.." button have some truncation
 Expected result:
 There are no truncations
 Actual result:
 There are truncations</t>
   </si>
   <si>
-    <t>Truncation "Working Folder" in "Manage Files" dialog.</t>
-  </si>
-  <si>
     <t>Steps to reproduce: 
 1. Launch 'TextPad'
 2. Go to 'File' -&gt; 'Manage Files…'
-3. In opened 'Manage Files' dialog
-4. "Working Folder" misses alignment
+3. "Working Folder" misalignment
 Expected result:
-There are no missed alignment
+There are no misalignment
 Actual result:
-There are missed alignment</t>
-  </si>
-  <si>
-    <t>Truncation "Files" in "Manage Files" dialog.</t>
+There are misalignment</t>
   </si>
   <si>
     <t>Steps to reproduce: 
 1. Launch 'TextPad'
-2. Go to 'File' -&gt; 'Manage Files…'
-3. In opened 'Manage Files' dialog
-4. Textbox is too close to "Files".
+2. Go to 'File' -&gt; 'Manage Files…' -&gt; 'Touch'
+3. Part of the button "OK" is in the Textbox.
 Expected result:
-There are some 
+There are no truncations
+Actual result:
+There are truncations</t>
+  </si>
+  <si>
+    <t>Steps to reproduce: 
+1. Launch 'TextPad'
+2. Go to 'File' -&gt; 'Manage Files…' -&gt; 'Touch'
+3. Part of the button "Cancel" is in the Textbox.
+Expected result:
+There are no truncations
+Actual result:
+There are truncations</t>
+  </si>
+  <si>
+    <t>Misalignment "Textbox" in "Touch" dialog.</t>
+  </si>
+  <si>
+    <t>Truncation "OK" in "Touch" dialog.</t>
+  </si>
+  <si>
+    <t>Truncation "Cancel" in "Touch" dialog.</t>
+  </si>
+  <si>
+    <t>Steps to reproduce: 
+1. Launch 'TextPad'
+2. Go to 'File' -&gt; 'Manage Files…' -&gt; 'Touch'
+3. Textbox has misalignment.
+Expected result:
+There are no misalignment
+Actual result:
+There are misalignment</t>
+  </si>
+  <si>
+    <t>Misalignment "Working Folder" in "Touch" dialog.</t>
+  </si>
+  <si>
+    <t>Steps to reproduce: 
+1. Launch 'TextPad'
+2. Go to 'File' -&gt; 'Manage Files…' -&gt; 'Touch'
+3. "Working Folder" misalignment
+Expected result:
+There are no misalignment
+Actual result:
+There are misalignment</t>
+  </si>
+  <si>
+    <t>Misalignment "Working Folder" in "Rename" dialog.</t>
+  </si>
+  <si>
+    <t>Truncation "Working Folder" in "Rename" dialog.</t>
+  </si>
+  <si>
+    <t>Steps to reproduce: 
+1. Launch 'TextPad'
+2. Go to 'File' -&gt; 'Manage Files…' -&gt; 'Rename'
+3. "Working Folder" truncations.
+Expected result:
+There are no truncations
+Actual result:
+There are truncations</t>
+  </si>
+  <si>
+    <t>Steps to reproduce: 
+1. Launch 'TextPad'
+2. Go to 'File' -&gt; 'Manage Files…' -&gt; 'Rename'
+3. "Working Folder" misalignment.
+Expected result:
+There are no misalignments
+Actual result:
+There are misalignments</t>
+  </si>
+  <si>
+    <t>Misalignment "To" in "Rename" dialog.</t>
+  </si>
+  <si>
+    <t>Steps to reproduce: 
+1. Launch 'TextPad'
+2. Go to 'File' -&gt; 'Manage Files…' -&gt; 'Rename'
+3. "To" misalignment.
+Expected result:
+There are no misalignments
+Actual result:
+There are misalignments</t>
+  </si>
+  <si>
+    <t>Rename with wrong format in 'Rename' dialog.</t>
+  </si>
+  <si>
+    <t>Misalignment "Textbox" in "Delete" dialog.</t>
+  </si>
+  <si>
+    <t>Steps to reproduce: 
+1. Launch 'TextPad'
+2. Go to 'File' -&gt; 'Manage Files…' -&gt; 'Delete'
+3. Textbox has misalignment.
+Expected result:
+There are no misalignment
+Actual result:
+There are misalignment</t>
+  </si>
+  <si>
+    <t>Misalignment "Working Folder" in "Delete" dialog.</t>
+  </si>
+  <si>
+    <t>Steps to reproduce: 
+1. Launch 'TextPad'
+2. Go to 'File' -&gt; 'Manage Files…' -&gt; 'Delete'
+3. "Working Folder" misalignment.
+Expected result:
+There are no misalignments
+Actual result:
+There are misalignments</t>
+  </si>
+  <si>
+    <t>Misalignment "Working Folder" in "Copy" dialog.</t>
+  </si>
+  <si>
+    <t>Steps to reproduce: 
+1. Launch 'TextPad'
+2. Go to 'File' -&gt; 'Manage Files…' -&gt; 'Copy'
+3. "Working Folder" misalignment.
+Expected result:
+There are no misalignments
+Actual result:
+There are misalignments</t>
+  </si>
+  <si>
+    <t>Truncation "Working Folder" in "Copy" dialog.</t>
+  </si>
+  <si>
+    <t>Steps to reproduce: 
+1. Launch 'TextPad'
+2. Go to 'File' -&gt; 'Manage Files…' -&gt; 'Copy'
+3. "Working Folder" truncations.
+Expected result:
+There are no truncations
+Actual result:
+There are truncations</t>
+  </si>
+  <si>
+    <t>Rename with wrong format in 'Copy' dialog.</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Steps to reproduce: 
+1. Launch 'TextPad'
+2. Go to 'File' -&gt; 'Manage Files…' -&gt; 'Rename'
+3. Rename 'txt' file.
+Expected result:
+Rename 'txt' file save 'txt' format
+Actual result:
+Rename 'txt' file doesn't save 'txt' format, work only if you add '.txt' to name.
+For example: 'test1' -&gt; 'test1.txt'</t>
+  </si>
+  <si>
+    <t>Steps to reproduce: 
+1. Launch 'TextPad'
+2. Go to 'File' -&gt; 'Manage Files…' -&gt; 'Copy'
+3. Copy 'txt' file.
+Expected result:
+Copy 'txt' file save 'txt' format
+Actual result:
+Copy 'txt' file doesn't save 'txt' format, work only if you add '.txt' to name.
+For example: 'test1' -&gt; 'test1.txt'</t>
+  </si>
+  <si>
+    <t>Misalignment "Name: " in "Print" dialog.</t>
+  </si>
+  <si>
+    <t>Steps to reproduce: 
+1. Launch 'TextPad'
+2. Go to 'File' -&gt; 'Print… '
+3. 'Name' has misalignment.
+Expected result:
+There are no misalignments
+Actual result:
+There are misalignments</t>
+  </si>
+  <si>
+    <t>Misalignment "Print range -&gt; from: " in "Print" dialog.</t>
+  </si>
+  <si>
+    <t>Steps to reproduce: 
+1. Launch 'TextPad'
+2. Go to 'File' -&gt; 'Print… '
+3. 'Print range -&gt; from: ' has misalignment.
+Expected result:
+There are no misalignments
+Actual result:
+There are misalignments</t>
+  </si>
+  <si>
+    <t>Misalignment "Copies -&gt; Number of copies: " in "Print" dialog.</t>
+  </si>
+  <si>
+    <t>Steps to reproduce: 
+1. Launch 'TextPad'
+2. Go to 'File' -&gt; 'Print… '
+3. 'Copies -&gt; Number of copies: ' has misalignment.
+Expected result:
+There are no misalignments
+Actual result:
+There are misalignments</t>
+  </si>
+  <si>
+    <t>Misalignment "All pages in range" in "Print" dialog.</t>
+  </si>
+  <si>
+    <t>Steps to reproduce: 
+1. Launch 'TextPad'
+2. Go to 'File' -&gt; 'Print… '
+3. 'All pages in range' has misalignment.
+Expected result:
+There are no misalignments
+Actual result:
+There are misalignments</t>
+  </si>
+  <si>
+    <t>Misalignment "Checkbox Collate" in "Print" dialog.</t>
+  </si>
+  <si>
+    <t>Steps to reproduce: 
+1. Launch 'TextPad'
+2. Go to 'File' -&gt; 'Print… '
+3. 'Checkbox Collate' has misalignment.
+Expected result:
+There are no misalignments
+Actual result:
+There are misalignments</t>
+  </si>
+  <si>
+    <t>Truncation "Properties" in "Print" dialog.</t>
+  </si>
+  <si>
+    <t>Steps to reproduce: 
+1. Launch 'TextPad'
+2. Go to 'File' -&gt; 'Print… '
+3. 'Checkbox Collate' has misalignment.
+Expected result:
+There are no truncations
+Actual result:
+There are truncations</t>
+  </si>
+  <si>
+    <t>Steps to reproduce: 
+1. Launch 'TextPad'
+2. Go to 'File' -&gt; 'Print -&gt; Properties -&gt; Foxit Reader PDF Printer'
+3. 'Edit...' has misalignment.
+Expected result:
+There are no misalignment
+Actual result:
+There are misalignment</t>
+  </si>
+  <si>
+    <t>Misalignment "Properties -&gt; Foxit Reader PDF Printer" in "Print" dialog.</t>
+  </si>
+  <si>
+    <t>Truncation "Zoom out" in "Print Preview" dialog.</t>
+  </si>
+  <si>
+    <t>Steps to reproduce: 
+1. Launch 'TextPad'
+2. Go to 'File' -&gt; 'Properties -&gt; Foxit Reader PDF Printer'
+3. 'Edit...' has truncation.
+Expected result:
+There are no truncations
 Actual result:
 There are truncations</t>
   </si>
@@ -224,7 +516,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -285,7 +577,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -478,11 +770,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -553,6 +882,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normaallaad" xfId="0" builtinId="0"/>
@@ -587,7 +934,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 2" descr="bug1.JPG"/>
+        <xdr:cNvPr id="2" name="Picture 2" descr="bug1.JPG">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -613,6 +966,1106 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4182043</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1571826</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Pilt 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{649E9444-9ADD-4A26-91D8-E50BD7E1535F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1524000" y="3971925"/>
+          <a:ext cx="4067743" cy="1438476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>447675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2543175</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>647700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Ristkülik 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFDA9D9B-19FE-459D-886D-EA749678D643}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1600200" y="4286250"/>
+          <a:ext cx="2352675" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="et-EE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4153468</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1628974</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Pilt 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BEDACF2-4BF4-4C14-910C-910EEA6A486A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1495425" y="4038600"/>
+          <a:ext cx="4067743" cy="1428949"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>971550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1247775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Ristkülik 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{624B614E-EC43-44A8-BEA8-C7A52BEA3FC3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1600200" y="4810125"/>
+          <a:ext cx="428625" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="et-EE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>600074</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>28351</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3505921</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Pilt 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAAAC6BC-F286-42F9-B780-F75A6069905C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2009774" y="3866926"/>
+          <a:ext cx="2905847" cy="3724499"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>885825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1619250</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1314450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Ristkülik 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06B51EC6-D87A-4FEC-B047-BC7873D79C51}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2085975" y="4724400"/>
+          <a:ext cx="942975" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="et-EE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>352425</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4277298</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1562269</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Pilt 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B14D7FB2-7ED3-4A0A-8CC8-03311DB5C1D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1581150" y="4019550"/>
+          <a:ext cx="4105848" cy="1209844"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>933450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4181475</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1285875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Ristkülik 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C8DC2BA-3496-468A-82EE-0684DF17FB5D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1657350" y="4600575"/>
+          <a:ext cx="3933825" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="et-EE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4201093</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1352716</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Pilt 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B0BA873-A3D7-4186-9E88-AE16F8B46F4B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1543050" y="4000500"/>
+          <a:ext cx="4067743" cy="1190791"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>466725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2552700</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>666750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Ristkülik 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18308882-B6A7-41D5-A0F6-6BA6F0D8F716}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1609725" y="4305300"/>
+          <a:ext cx="2352675" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="et-EE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4162990</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1533726</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Pilt 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E91C5C4-3598-473B-8825-15A310E6F24C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1524000" y="3933825"/>
+          <a:ext cx="4048690" cy="1438476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>390525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2514600</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>590550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Ristkülik 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40404140-972F-4444-8D50-AB256DA7B8F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1571625" y="4229100"/>
+          <a:ext cx="2352675" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="et-EE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4153469</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1552774</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Pilt 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8011DBFD-F117-4F70-9E75-78D2C6F63224}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1485900" y="3771900"/>
+          <a:ext cx="4077269" cy="1428949"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>400050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>923925</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>609600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Ristkülik 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05240438-FFB8-40B6-B840-20127867F6B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1562100" y="4048125"/>
+          <a:ext cx="771525" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="et-EE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing17.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3543300</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>137460</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Pilt 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10D528D7-38AC-4AF0-B225-94534A40C442}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2038350" y="3886200"/>
+          <a:ext cx="2914650" cy="3728385"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>847725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1666875</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1276350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Ristkülik 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEA8619D-D5CF-4DEB-9CD3-F9CE7EF14489}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2133600" y="4686300"/>
+          <a:ext cx="942975" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="et-EE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing18.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4152900</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>3071152</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Pilt 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{164EFE87-1240-4147-A78C-C925F4730294}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1543050" y="3476625"/>
+          <a:ext cx="4019550" cy="3042577"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>285749</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>476250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2714624</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>733425</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Ristkülik 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72F18DAB-FAE7-4D21-A092-DF75352D8F72}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1695449" y="3924300"/>
+          <a:ext cx="2428875" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="et-EE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing19.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4086225</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>3064013</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Pilt 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5E8DDD9-EF29-4B82-B88B-1D5CEC04F0B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1485900" y="3486150"/>
+          <a:ext cx="4010025" cy="3025913"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>781051</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1971676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1514475</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>2314576</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Ristkülik 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DB8A250-0AAF-47F6-83D1-8FD0B54600CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2190751" y="5419726"/>
+          <a:ext cx="733424" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="et-EE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -630,7 +2083,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Pilt 1"/>
+        <xdr:cNvPr id="2" name="Pilt 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -668,7 +2127,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Ristkülik 2"/>
+        <xdr:cNvPr id="3" name="Ristkülik 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -711,6 +2176,776 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing20.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>85726</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4029076</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>3024792</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Pilt 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B23058B6-EE54-49AA-AFCC-5BC019081BEE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1495426" y="3476625"/>
+          <a:ext cx="3943350" cy="2996217"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2114549</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1876425</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3209924</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>2314575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Ristkülik 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B0F3BC0-C795-428C-BC68-1079D2AFBE4A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3524249" y="5324475"/>
+          <a:ext cx="1095375" cy="438150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="et-EE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing21.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4081362</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>3057525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Pilt 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D47F3B0F-0213-424B-A73E-63B50E99103B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1495425" y="3476625"/>
+          <a:ext cx="3995637" cy="3028950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>2762250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2324100</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>3067050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Ristkülik 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71471B89-09EB-4535-91F4-F116BF59882D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2009775" y="6210300"/>
+          <a:ext cx="1724025" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="et-EE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing22.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4081362</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>3057525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Pilt 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E839CEA4-ACC0-4463-89A1-855AC20141B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1495425" y="3476625"/>
+          <a:ext cx="3995637" cy="3028950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3400425</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>2133600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3962400</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>2438400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Ristkülik 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EC9B390-AF85-4A26-B016-53D9E760C762}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4810125" y="5581650"/>
+          <a:ext cx="561975" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="et-EE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing23.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4081362</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>3057525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Pilt 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7B8A0D8-D96F-49EA-A23E-C091139595A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1495425" y="3476625"/>
+          <a:ext cx="3995637" cy="3028950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3286125</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>466725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3924300</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>771525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Ristkülik 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0C00A14-A757-48A4-ADED-7942CA4DA9CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4695825" y="3914775"/>
+          <a:ext cx="638175" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="et-EE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing24.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4582106</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>76917</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Pilt 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38C8D212-1D37-4AF2-931E-A30BBC8BEDA1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1828800" y="3571875"/>
+          <a:ext cx="4163006" cy="5134692"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3238501</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>3048000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3867151</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Ristkülik 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6416F4F-9FB5-4D9D-AA33-008F921E1405}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4648201" y="6496050"/>
+          <a:ext cx="628650" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="et-EE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing25.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>447674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>5125151</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>771525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Pilt 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D5697CC-854B-40F1-9DC4-F5931732C72D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1514475" y="3895724"/>
+          <a:ext cx="5020376" cy="323851"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2828924</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>457200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4057649</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>762000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Ristkülik 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7010ABE2-3E41-4657-A0D3-05365A7AEEB1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4238624" y="3905250"/>
+          <a:ext cx="1228725" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="et-EE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing26.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>447674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>5125151</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>771525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Pilt 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA872516-EDFE-45D8-831E-D77FF2427B52}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1514475" y="3895724"/>
+          <a:ext cx="5020376" cy="323851"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2828924</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>457200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4057649</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>762000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Ristkülik 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE83C48-274D-4F7C-B4E0-0533414CAA7A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4238624" y="3905250"/>
+          <a:ext cx="1228725" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="et-EE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -728,7 +2963,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Pilt 1"/>
+        <xdr:cNvPr id="2" name="Pilt 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -766,7 +3007,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Ristkülik 2"/>
+        <xdr:cNvPr id="3" name="Ristkülik 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -826,7 +3073,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Pilt 1"/>
+        <xdr:cNvPr id="2" name="Pilt 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -864,13 +3117,569 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Ristkülik 2"/>
+        <xdr:cNvPr id="3" name="Ristkülik 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1581150" y="4048125"/>
           <a:ext cx="381000" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="et-EE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4229670</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1371771</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Pilt 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B712FB8B-641A-46CB-913E-5CF055CE166A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1552575" y="3590925"/>
+          <a:ext cx="4086795" cy="1228896"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1266825</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>990600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2143125</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1276350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Ristkülik 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EB48630-E4F6-400D-AE9B-738E7A944F24}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2676525" y="4438650"/>
+          <a:ext cx="876300" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="et-EE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4248728</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1343203</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Pilt 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E12FAE36-298D-44C3-88EE-E31CF85DC82F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1514475" y="3543300"/>
+          <a:ext cx="4143953" cy="1276528"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2238375</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>904875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3000375</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1209675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Ristkülik 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{135E8000-3FD3-44AE-9610-9E43B638D230}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3648075" y="4381500"/>
+          <a:ext cx="762000" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="et-EE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4162997</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1295565</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Pilt 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E83A7D30-9A5C-4B4D-A84D-8A40A887C0D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1476375" y="3781425"/>
+          <a:ext cx="4096322" cy="1181265"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>676275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4029075</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1009650</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Ristkülik 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47131AFF-CF20-40F8-8A42-0D9644A4C83E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1581150" y="4343400"/>
+          <a:ext cx="3857625" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="et-EE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4182041</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1333664</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Pilt 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD9A5C7D-8FB9-4822-8832-5D7AFEEA6BA1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1533525" y="3876675"/>
+          <a:ext cx="4058216" cy="1171739"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2562225</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>685800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Ristkülik 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{973543C6-FF93-422E-B9FF-C16BF4A2BB04}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1600200" y="4143375"/>
+          <a:ext cx="2371725" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="et-EE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4162993</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1514672</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Pilt 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C25F8810-A3C2-49DE-8316-1A7419C62896}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1504950" y="3752850"/>
+          <a:ext cx="4067743" cy="1409897"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>381000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>933450</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>590550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Ristkülik 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98922867-4D09-4DC7-B95C-7851C670B7C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1571625" y="4029075"/>
+          <a:ext cx="771525" cy="209550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -983,6 +3792,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1018,6 +3844,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1193,7 +4036,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E88"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -1696,7 +4539,547 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <sheetPr>
+    <tabColor theme="3" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="B1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="100.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="26">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="183" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="225.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <sheetPr>
+    <tabColor theme="3" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="B1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="100.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="26">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="186.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="226.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <sheetPr>
+    <tabColor theme="3" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="B1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="109.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="26">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="181.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="226.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <sheetPr>
+    <tabColor theme="3" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="B1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="109.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="196.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="211.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FA33D0B-303A-4D2C-8B8C-7955C2C39F84}">
+  <sheetPr>
+    <tabColor theme="3" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="B1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="109.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="26">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="196.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="211.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB3D1316-2726-4D81-A733-C9F44CCBF04F}">
+  <sheetPr>
+    <tabColor theme="3" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="B1:C15"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="109.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="26">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="196.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="211.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="30"/>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C10" s="31"/>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C11" s="31"/>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C12" s="31"/>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C13" s="31"/>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C14" s="31"/>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C15" s="32"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C9:C15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE564F29-7D69-43E9-8425-9A8C0A10BC29}">
+  <sheetPr>
+    <tabColor theme="3" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="B1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1714,43 +5097,57 @@
       <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" s="26">
+        <v>13</v>
+      </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="3"/>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="3"/>
+      <c r="C7" s="3" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="8" spans="2:3" ht="183" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="3"/>
+      <c r="C8" s="27" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="9" spans="2:3" ht="225.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
@@ -1760,21 +5157,25 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D479ACC-068A-4779-AE19-35173396A093}">
+  <sheetPr>
+    <tabColor theme="3" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="B1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="100.7109375" customWidth="1"/>
+    <col min="3" max="3" width="109.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1782,45 +5183,59 @@
       <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" s="26">
+        <v>14</v>
+      </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="3"/>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="2:3" ht="186.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="196.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="2:3" ht="226.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="27" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="211.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>4</v>
       </c>
@@ -1828,15 +5243,105 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27ED3E97-A274-40B5-AB6B-9D4538E5B2EE}">
+  <sheetPr>
+    <tabColor theme="3" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="B1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="109.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="26">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="196.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="211.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0ED3967-0AA2-4595-AB50-47DF217EE445}">
+  <sheetPr>
+    <tabColor theme="3" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="B1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1850,43 +5355,57 @@
       <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" s="26">
+        <v>16</v>
+      </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="3"/>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="3"/>
+      <c r="C7" s="3" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="8" spans="2:3" ht="181.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="3"/>
+      <c r="C8" s="27" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="9" spans="2:3" ht="226.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
@@ -1896,36 +5415,19 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A8:A9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="109.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="8" ht="196.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" ht="211.5" customHeight="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <tabColor theme="3" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="B1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2013,12 +5515,1007 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{351460EB-555E-424B-82F7-7A9F181D6C82}">
+  <sheetPr>
+    <tabColor theme="3" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="B1:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="109.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="26">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="196.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="211.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="30"/>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C10" s="31"/>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C11" s="31"/>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C12" s="31"/>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C13" s="31"/>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C14" s="31"/>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C15" s="32"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C9:C15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1927135-8FC4-4D41-AE2F-8DBC19FB37AE}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="B1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="109.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="26">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="165.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="243" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B53E9D18-2A2F-4142-A17A-FD449F5A4130}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="B1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="109.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="26">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="165.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="243" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49A94571-0FCC-4028-A680-92936335A439}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="B1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="109.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="26">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="165.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="243" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{465370D6-3682-47FB-B461-5C0FE72F6262}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="B1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="109.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="26">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="165.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="243" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{085D39F6-9B5D-4ADD-B632-033D7BF28BB9}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="B1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="109.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="26">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="165.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="243" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{997D9A40-2E13-4B7E-B980-4D9E30D8E328}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="B1:C9"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="109.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="26">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="165.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="243" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D1CAE3E-2676-4905-9156-F773A30CEAD0}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="B1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="109.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="26">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="165.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="243" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="30"/>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C10" s="31"/>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C11" s="31"/>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C12" s="31"/>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C13" s="31"/>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C14" s="31"/>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C15" s="31"/>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C16" s="31"/>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17" s="31"/>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C18" s="31"/>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C19" s="31"/>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C20" s="31"/>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C21" s="32"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C9:C21"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA5D9DB5-6C15-47CC-8692-886D389C05E9}">
+  <sheetPr>
+    <tabColor theme="7" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="B1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="109.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="165.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="150.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="33"/>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C10" s="28"/>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C11" s="28"/>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C12" s="28"/>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C13" s="28"/>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C14" s="28"/>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C15" s="28"/>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C16" s="28"/>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17" s="28"/>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C18" s="28"/>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C19" s="28"/>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C20" s="28"/>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C21" s="28"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0CE78A1-30BD-467B-BC4C-304CBC7B8D67}">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="B1:C21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="109.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="26">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="165.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="150.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="33"/>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C10" s="28"/>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C11" s="28"/>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C12" s="28"/>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C13" s="28"/>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C14" s="28"/>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C15" s="28"/>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C16" s="28"/>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17" s="28"/>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C18" s="28"/>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C19" s="28"/>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C20" s="28"/>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C21" s="28"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr>
+    <tabColor theme="3" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="B1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2083,8 +6580,8 @@
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>46</v>
+      <c r="C8" s="27" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="243" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2100,7 +6597,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2114,7 +6611,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2126,11 +6623,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <sheetPr>
+    <tabColor theme="3" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="B1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2193,7 +6693,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="228.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2209,11 +6709,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <sheetPr>
+    <tabColor theme="3" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="B1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2268,7 +6771,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="165.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2276,7 +6779,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="243" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2292,11 +6795,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <sheetPr>
+    <tabColor theme="3" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="B1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2310,43 +6816,57 @@
       <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" s="26">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="3"/>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="3"/>
+      <c r="C7" s="3" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="8" spans="2:3" ht="165.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="3"/>
+      <c r="C8" s="27" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="9" spans="2:3" ht="241.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
@@ -2356,15 +6876,19 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <sheetPr>
+    <tabColor theme="3" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="B1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2378,43 +6902,57 @@
       <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" s="26">
+        <v>6</v>
+      </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="3"/>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="3"/>
+      <c r="C7" s="3" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="8" spans="2:3" ht="168" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="3"/>
+      <c r="C8" s="27" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="9" spans="2:3" ht="240.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
@@ -2424,6 +6962,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2434,6 +6973,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008637D92200D9FB479BA16C4B83625D84" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="86824dc3d0c558fc55e0f7eea637055d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8022916f55ab85163ee9a5069dec31d5">
     <xsd:element name="properties">
@@ -2547,15 +7095,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F20789A9-57E9-4886-B95B-F2A34AEE83F1}">
   <ds:schemaRefs>
@@ -2572,6 +7111,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C53E4B81-85CB-4814-992F-9FCD036E17F1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E332EF1-2545-4931-AFE1-846AA95CDFE6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2585,12 +7132,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C53E4B81-85CB-4814-992F-9FCD036E17F1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/TextPad 7/Koopia failist Bug report template.xlsx
+++ b/TextPad 7/Koopia failist Bug report template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20389"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25704"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\opilane\projects\TextPad 7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D90B7F45-987E-4D9A-A7F7-22197585A382}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="211" documentId="13_ncr:1_{D90B7F45-987E-4D9A-A7F7-22197585A382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{88BB75DA-2E1A-48D2-BFDC-D6F0F70E92B3}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="12855" tabRatio="804" firstSheet="20" activeTab="28" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="12855" tabRatio="804" firstSheet="28" activeTab="42" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Report" sheetId="11" r:id="rId1"/>
@@ -42,54 +42,165 @@
     <sheet name="Bug 24" sheetId="27" r:id="rId27"/>
     <sheet name="Bug 25" sheetId="28" r:id="rId28"/>
     <sheet name="Bug 26" sheetId="29" r:id="rId29"/>
+    <sheet name="Bug 27" sheetId="30" r:id="rId30"/>
+    <sheet name="Bug 28" sheetId="31" r:id="rId31"/>
+    <sheet name="Bug 29" sheetId="32" r:id="rId32"/>
+    <sheet name="Bug 30" sheetId="33" r:id="rId33"/>
+    <sheet name="Bug 31" sheetId="34" r:id="rId34"/>
+    <sheet name="Bug 32" sheetId="35" r:id="rId35"/>
+    <sheet name="Bug 33" sheetId="37" r:id="rId36"/>
+    <sheet name="Bug 34" sheetId="36" r:id="rId37"/>
+    <sheet name="Bug 35" sheetId="38" r:id="rId38"/>
+    <sheet name="Bug 36" sheetId="39" r:id="rId39"/>
+    <sheet name="Bug 37" sheetId="40" r:id="rId40"/>
+    <sheet name="Bug 38" sheetId="41" r:id="rId41"/>
+    <sheet name="Bug 39" sheetId="42" r:id="rId42"/>
+    <sheet name="Bug 40" sheetId="43" r:id="rId43"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="122">
+  <si>
+    <t xml:space="preserve">1. Hello and welcome to skype training.  The point of this training is to check your test comprehension and attention to detail. Be sure to read through provided documentation.  
+2. You have been given three documents: “Overall testing guide”,  “Learn as you go” and a small “Skype Glossary” the information provided in all three is more than enough to get you started with the test cases. 
+3. For the sake of this project. Any bugs that you find should be reported via text document and sent to Dmitri.Kanarjov@sqapartners.com  or Dmitri.Sidorenko@sqapartners.com . With all steps so we could reproduce the issues.
+</t>
+  </si>
+  <si>
+    <t>TC</t>
+  </si>
+  <si>
+    <t>Prerequisites:</t>
+  </si>
+  <si>
+    <t>Pass/Fail</t>
+  </si>
+  <si>
+    <t>Bug number</t>
+  </si>
+  <si>
+    <t>1. TextPad Manage Files</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>2. TextPad Document Print</t>
+  </si>
+  <si>
+    <t>3. TextPad Document Print Preview</t>
+  </si>
+  <si>
+    <t>4. TextPad Document Page Setup</t>
+  </si>
+  <si>
+    <t>5. TextPad Send File via email functionality</t>
+  </si>
+  <si>
+    <t>6. TextPad Files Changed alert</t>
+  </si>
+  <si>
+    <t>7. TextPad Find text</t>
+  </si>
+  <si>
+    <t>8. TextPad Find in Files</t>
+  </si>
+  <si>
+    <t>9. TextPad Replace data</t>
+  </si>
+  <si>
+    <t>10. TextPad Go To…</t>
+  </si>
+  <si>
+    <t>11. TextPad View in Browser</t>
+  </si>
+  <si>
+    <t>12. TextPad Document Properties</t>
+  </si>
+  <si>
+    <t>13. TextPad Compare Files</t>
+  </si>
+  <si>
+    <t>14. TextPad Spelling Check</t>
+  </si>
+  <si>
+    <t>15. TextPad Sort…</t>
+  </si>
+  <si>
+    <t>16. TextPad Run Command</t>
+  </si>
+  <si>
+    <t>17. TextPad Document Class Wizard</t>
+  </si>
+  <si>
+    <t>18. TextPad Preferences</t>
+  </si>
+  <si>
+    <t>19. TextPad Help Menu</t>
+  </si>
+  <si>
+    <t>1. IE and/or Firefox plugins are installed.</t>
+  </si>
+  <si>
+    <t>20. TextPad Customize UI</t>
+  </si>
+  <si>
+    <t>Reporter name:</t>
+  </si>
+  <si>
+    <t>Vasja Pupkin</t>
+  </si>
+  <si>
+    <t>Bug #:</t>
+  </si>
   <si>
     <t>Product:</t>
   </si>
   <si>
+    <t>TextPad</t>
+  </si>
+  <si>
+    <t>Build #:</t>
+  </si>
+  <si>
+    <t>7.0.7</t>
+  </si>
+  <si>
+    <t>OS:</t>
+  </si>
+  <si>
+    <t>Windows 7 Enterprise</t>
+  </si>
+  <si>
     <t>Severity:</t>
   </si>
   <si>
+    <t>Low</t>
+  </si>
+  <si>
     <t>Summary:</t>
   </si>
   <si>
+    <t>Truncation 'Rename…' in 'Manage files' dialog</t>
+  </si>
+  <si>
     <t>Description:</t>
-  </si>
-  <si>
-    <t>Attachment:</t>
-  </si>
-  <si>
-    <t>Bug #:</t>
-  </si>
-  <si>
-    <t>OS:</t>
-  </si>
-  <si>
-    <t>Build #:</t>
-  </si>
-  <si>
-    <t>Reporter name:</t>
-  </si>
-  <si>
-    <t>TextPad</t>
-  </si>
-  <si>
-    <t>7.0.7</t>
-  </si>
-  <si>
-    <t>Windows 7 Enterprise</t>
-  </si>
-  <si>
-    <t>Low</t>
-  </si>
-  <si>
-    <t>Truncation 'Rename…' in 'Manage files' dialog</t>
   </si>
   <si>
     <t>Steps to reproduce: 
@@ -103,106 +214,42 @@
 There are truncations</t>
   </si>
   <si>
-    <t>Vasja Pupkin</t>
-  </si>
-  <si>
-    <t>none</t>
-  </si>
-  <si>
-    <t>20. TextPad Customize UI</t>
-  </si>
-  <si>
-    <t>1. IE and/or Firefox plugins are installed.</t>
-  </si>
-  <si>
-    <t>19. TextPad Help Menu</t>
-  </si>
-  <si>
-    <t>18. TextPad Preferences</t>
-  </si>
-  <si>
-    <t>17. TextPad Document Class Wizard</t>
-  </si>
-  <si>
-    <t>16. TextPad Run Command</t>
-  </si>
-  <si>
-    <t>15. TextPad Sort…</t>
-  </si>
-  <si>
-    <t>14. TextPad Spelling Check</t>
-  </si>
-  <si>
-    <t>13. TextPad Compare Files</t>
-  </si>
-  <si>
-    <t>12. TextPad Document Properties</t>
-  </si>
-  <si>
-    <t>11. TextPad View in Browser</t>
-  </si>
-  <si>
-    <t>10. TextPad Go To…</t>
-  </si>
-  <si>
-    <t>9. TextPad Replace data</t>
-  </si>
-  <si>
-    <t>8. TextPad Find in Files</t>
-  </si>
-  <si>
-    <t>7. TextPad Find text</t>
-  </si>
-  <si>
-    <t>6. TextPad Files Changed alert</t>
-  </si>
-  <si>
-    <t>5. TextPad Send File via email functionality</t>
-  </si>
-  <si>
-    <t>4. TextPad Document Page Setup</t>
-  </si>
-  <si>
-    <t>3. TextPad Document Print Preview</t>
-  </si>
-  <si>
-    <t>2. TextPad Document Print</t>
-  </si>
-  <si>
-    <t>1. TextPad Manage Files</t>
-  </si>
-  <si>
-    <t>Bug number</t>
-  </si>
-  <si>
-    <t>Pass/Fail</t>
-  </si>
-  <si>
-    <t>Prerequisites:</t>
-  </si>
-  <si>
-    <t>TC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Hello and welcome to skype training.  The point of this training is to check your test comprehension and attention to detail. Be sure to read through provided documentation.  
-2. You have been given three documents: “Overall testing guide”,  “Learn as you go” and a small “Skype Glossary” the information provided in all three is more than enough to get you started with the test cases. 
-3. For the sake of this project. Any bugs that you find should be reported via text document and sent to Dmitri.Kanarjov@sqapartners.com  or Dmitri.Sidorenko@sqapartners.com . With all steps so we could reproduce the issues.
-</t>
+    <t>Attachment:</t>
   </si>
   <si>
     <t>Windows 10 Pro</t>
   </si>
   <si>
+    <t>Truncation "Browse..." in "Manage Files" dialog.</t>
+  </si>
+  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Truncation "Browse..." in "Manage Files" dialog.</t>
+    <t>Steps to reproduce: 
+1. Launch 'TextPad'
+2. Go to 'File' -&gt; 'Manage Files…'
+3. "Browse.." button have some truncation
+Expected result:
+There are no truncations
+Actual result:
+There are truncations</t>
+  </si>
+  <si>
+    <t>Misalignment "Working Folder" in "Manage Files" dialog.</t>
+  </si>
+  <si>
+    <t>Steps to reproduce: 
+1. Launch 'TextPad'
+2. Go to 'File' -&gt; 'Manage Files…'
+3. "Working Folder" misalignment
+Expected result:
+There are no misalignment
+Actual result:
+There are misalignment</t>
   </si>
   <si>
     <t>Misalignment "Files" in "Manage Files" dialog.</t>
-  </si>
-  <si>
-    <t>Misalignment "Working Folder" in "Manage Files" dialog.</t>
   </si>
   <si>
     <t>Steps to reproduce: 
@@ -215,24 +262,7 @@
 There are misalignment</t>
   </si>
   <si>
-    <t>Steps to reproduce: 
-1. Launch 'TextPad'
-2. Go to 'File' -&gt; 'Manage Files…'
-3. "Browse.." button have some truncation
-Expected result:
-There are no truncations
-Actual result:
-There are truncations</t>
-  </si>
-  <si>
-    <t>Steps to reproduce: 
-1. Launch 'TextPad'
-2. Go to 'File' -&gt; 'Manage Files…'
-3. "Working Folder" misalignment
-Expected result:
-There are no misalignment
-Actual result:
-There are misalignment</t>
+    <t>Truncation "OK" in "Touch" dialog.</t>
   </si>
   <si>
     <t>Steps to reproduce: 
@@ -245,6 +275,9 @@
 There are truncations</t>
   </si>
   <si>
+    <t>Truncation "Cancel" in "Touch" dialog.</t>
+  </si>
+  <si>
     <t>Steps to reproduce: 
 1. Launch 'TextPad'
 2. Go to 'File' -&gt; 'Manage Files…' -&gt; 'Touch'
@@ -258,12 +291,6 @@
     <t>Misalignment "Textbox" in "Touch" dialog.</t>
   </si>
   <si>
-    <t>Truncation "OK" in "Touch" dialog.</t>
-  </si>
-  <si>
-    <t>Truncation "Cancel" in "Touch" dialog.</t>
-  </si>
-  <si>
     <t>Steps to reproduce: 
 1. Launch 'TextPad'
 2. Go to 'File' -&gt; 'Manage Files…' -&gt; 'Touch'
@@ -287,9 +314,6 @@
 There are misalignment</t>
   </si>
   <si>
-    <t>Misalignment "Working Folder" in "Rename" dialog.</t>
-  </si>
-  <si>
     <t>Truncation "Working Folder" in "Rename" dialog.</t>
   </si>
   <si>
@@ -303,6 +327,9 @@
 There are truncations</t>
   </si>
   <si>
+    <t>Misalignment "Working Folder" in "Rename" dialog.</t>
+  </si>
+  <si>
     <t>Steps to reproduce: 
 1. Launch 'TextPad'
 2. Go to 'File' -&gt; 'Manage Files…' -&gt; 'Rename'
@@ -326,65 +353,10 @@
 There are misalignments</t>
   </si>
   <si>
+    <t>Medium</t>
+  </si>
+  <si>
     <t>Rename with wrong format in 'Rename' dialog.</t>
-  </si>
-  <si>
-    <t>Misalignment "Textbox" in "Delete" dialog.</t>
-  </si>
-  <si>
-    <t>Steps to reproduce: 
-1. Launch 'TextPad'
-2. Go to 'File' -&gt; 'Manage Files…' -&gt; 'Delete'
-3. Textbox has misalignment.
-Expected result:
-There are no misalignment
-Actual result:
-There are misalignment</t>
-  </si>
-  <si>
-    <t>Misalignment "Working Folder" in "Delete" dialog.</t>
-  </si>
-  <si>
-    <t>Steps to reproduce: 
-1. Launch 'TextPad'
-2. Go to 'File' -&gt; 'Manage Files…' -&gt; 'Delete'
-3. "Working Folder" misalignment.
-Expected result:
-There are no misalignments
-Actual result:
-There are misalignments</t>
-  </si>
-  <si>
-    <t>Misalignment "Working Folder" in "Copy" dialog.</t>
-  </si>
-  <si>
-    <t>Steps to reproduce: 
-1. Launch 'TextPad'
-2. Go to 'File' -&gt; 'Manage Files…' -&gt; 'Copy'
-3. "Working Folder" misalignment.
-Expected result:
-There are no misalignments
-Actual result:
-There are misalignments</t>
-  </si>
-  <si>
-    <t>Truncation "Working Folder" in "Copy" dialog.</t>
-  </si>
-  <si>
-    <t>Steps to reproduce: 
-1. Launch 'TextPad'
-2. Go to 'File' -&gt; 'Manage Files…' -&gt; 'Copy'
-3. "Working Folder" truncations.
-Expected result:
-There are no truncations
-Actual result:
-There are truncations</t>
-  </si>
-  <si>
-    <t>Rename with wrong format in 'Copy' dialog.</t>
-  </si>
-  <si>
-    <t>Medium</t>
   </si>
   <si>
     <t>Steps to reproduce: 
@@ -398,6 +370,61 @@
 For example: 'test1' -&gt; 'test1.txt'</t>
   </si>
   <si>
+    <t>Misalignment "Textbox" in "Delete" dialog.</t>
+  </si>
+  <si>
+    <t>Steps to reproduce: 
+1. Launch 'TextPad'
+2. Go to 'File' -&gt; 'Manage Files…' -&gt; 'Delete'
+3. Textbox has misalignment.
+Expected result:
+There are no misalignment
+Actual result:
+There are misalignment</t>
+  </si>
+  <si>
+    <t>Misalignment "Working Folder" in "Delete" dialog.</t>
+  </si>
+  <si>
+    <t>Steps to reproduce: 
+1. Launch 'TextPad'
+2. Go to 'File' -&gt; 'Manage Files…' -&gt; 'Delete'
+3. "Working Folder" misalignment.
+Expected result:
+There are no misalignments
+Actual result:
+There are misalignments</t>
+  </si>
+  <si>
+    <t>Misalignment "Working Folder" in "Copy" dialog.</t>
+  </si>
+  <si>
+    <t>Steps to reproduce: 
+1. Launch 'TextPad'
+2. Go to 'File' -&gt; 'Manage Files…' -&gt; 'Copy'
+3. "Working Folder" misalignment.
+Expected result:
+There are no misalignments
+Actual result:
+There are misalignments</t>
+  </si>
+  <si>
+    <t>Truncation "Working Folder" in "Copy" dialog.</t>
+  </si>
+  <si>
+    <t>Steps to reproduce: 
+1. Launch 'TextPad'
+2. Go to 'File' -&gt; 'Manage Files…' -&gt; 'Copy'
+3. "Working Folder" truncations.
+Expected result:
+There are no truncations
+Actual result:
+There are truncations</t>
+  </si>
+  <si>
+    <t>Rename with wrong format in 'Copy' dialog.</t>
+  </si>
+  <si>
     <t>Steps to reproduce: 
 1. Launch 'TextPad'
 2. Go to 'File' -&gt; 'Manage Files…' -&gt; 'Copy'
@@ -487,6 +514,9 @@
 There are truncations</t>
   </si>
   <si>
+    <t>Misalignment "Properties -&gt; Foxit Reader PDF Printer" in "Print" dialog.</t>
+  </si>
+  <si>
     <t>Steps to reproduce: 
 1. Launch 'TextPad'
 2. Go to 'File' -&gt; 'Print -&gt; Properties -&gt; Foxit Reader PDF Printer'
@@ -497,9 +527,6 @@
 There are misalignment</t>
   </si>
   <si>
-    <t>Misalignment "Properties -&gt; Foxit Reader PDF Printer" in "Print" dialog.</t>
-  </si>
-  <si>
     <t>Truncation "Zoom out" in "Print Preview" dialog.</t>
   </si>
   <si>
@@ -512,12 +539,201 @@
 Actual result:
 There are truncations</t>
   </si>
+  <si>
+    <t>Uncorrect encoding "Parameter" in "Page Setup" dialog.</t>
+  </si>
+  <si>
+    <t>Steps to reproduce: 
+1. Launch 'TextPad'
+2. Go to 'File' -&gt; 'Page Setup'
+3. 'Parameter' has uncorrect encoding.
+Expected result:
+There are no uncorrect encoding.
+Actual result:
+There are uncorrect encoding.</t>
+  </si>
+  <si>
+    <t>Misalignments "Header" in "Page Setup" dialog.</t>
+  </si>
+  <si>
+    <t>Steps to reproduce: 
+1. Launch 'TextPad'
+2. Go to 'File' -&gt; 'Page Setup'
+3. 'Header' has misalignment.
+Expected result:
+There are no misalignments
+Actual result:
+There are misalignments</t>
+  </si>
+  <si>
+    <t>Uncorrect encoding "Header Textbox" in "Page Setup" dialog.</t>
+  </si>
+  <si>
+    <t>Steps to reproduce: 
+1. Launch 'TextPad'
+2. Go to 'File' -&gt; 'Page Setup'
+3. 'Header Textbox' has uncorrect encoding.
+Expected result:
+There are no uncorrect encoding
+Actual result:
+There are uncorrect encoding</t>
+  </si>
+  <si>
+    <t>Truncation "Header Textbox" in "Page Setup" dialog.</t>
+  </si>
+  <si>
+    <t>Steps to reproduce: 
+1. Launch 'TextPad'
+2. Go to 'File' -&gt; 'Page Setup'
+3. 'Header Textbox' has truncation.
+Expected result:
+There are no truncations
+Actual result:
+There are truncations</t>
+  </si>
+  <si>
+    <t>Uncorrect encoding "Footer Textbox" in "Page Setup" dialog.</t>
+  </si>
+  <si>
+    <t>Steps to reproduce: 
+1. Launch 'TextPad'
+2. Go to 'File' -&gt; 'Page Setup'
+3. 'Footer Textbox' has uncorrect encoding.
+Expected result:
+There are no uncorrect encoding
+Actual result:
+There are uncorrect encoding</t>
+  </si>
+  <si>
+    <t>Truncation "Footer Textbox" in "Page Setup" dialog.</t>
+  </si>
+  <si>
+    <t>Steps to reproduce: 
+1. Launch 'TextPad'
+2. Go to 'File' -&gt; 'Page Setup'
+3. 'Footer Textbox' has truncation.
+Expected result:
+There are no truncations
+Actual result:
+There are truncations</t>
+  </si>
+  <si>
+    <t>Truncation "Printer..." in "Page Setup" dialog.</t>
+  </si>
+  <si>
+    <t>Steps to reproduce: 
+1. Launch 'TextPad'
+2. Go to 'File' -&gt; 'Page Setup'
+3. 'Printer...' has truncation.
+Expected result:
+There are no truncations
+Actual result:
+There are truncations</t>
+  </si>
+  <si>
+    <t>Error to launch "Справка" in "Page Setup" dialog.</t>
+  </si>
+  <si>
+    <t>Steps to reproduce: 
+1. Launch 'TextPad'
+2. Go to 'File' -&gt; 'Page Setup'
+3. 'Справка' has a lauch error.
+Expected result:
+There are no lauch errors
+Actual result:
+There are lauch errors</t>
+  </si>
+  <si>
+    <t>Steps to reproduce: 
+1. Launch 'TextPad'
+2. Go to 'File' -&gt; 'Page Setup' -&gt; 'Printer'
+3. 'Справка' has a lauch error.
+Expected result:
+There are no lauch errors
+Actual result:
+There are lauch errors</t>
+  </si>
+  <si>
+    <t>Error "Send".</t>
+  </si>
+  <si>
+    <t>Steps to reproduce: 
+1. Launch 'TextPad'
+2. Go to 'File' -&gt; 'Send'
+3. 'Send' has a lauch error.
+Expected result:
+There are no lauch errors
+Actual result:
+There are lauch errors</t>
+  </si>
+  <si>
+    <t>Misalignments button "Save None" in "TextPad" dialog.</t>
+  </si>
+  <si>
+    <t>Steps to reproduce: 
+1. Launch 'TextPad'
+2. Create several documents
+3. Make some changes in few documents
+4. Try to close TextPad without saving documents
+5. Button "Save None" has misalignments.
+Expected result:
+There are no misalignments
+Actual result:
+There are misalignments</t>
+  </si>
+  <si>
+    <t>Misalignments text in "TextPad" dialog.</t>
+  </si>
+  <si>
+    <t>Steps to reproduce: 
+1. Launch 'TextPad'
+2. Create several documents
+3. Make some changes in few documents
+4. Try to close TextPad without saving documents
+5. Main text has misalignments
+Expected result:
+There are no misalignments
+Actual result:
+There are misalignments</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Truncations in Save option.</t>
+  </si>
+  <si>
+    <t>Steps to reproduce: 
+1. Launch 'TextPad'
+2. Create several documents
+3. Make some changes in few documents
+4. Try to close TextPad without saving documents
+5. Save all files
+6. Truncations in Save option.
+Expected result:
+There are no errors with save
+Actual result:
+There are errors with save</t>
+  </si>
+  <si>
+    <t>Misalignments "Checkboxes" in "Find" dialog.</t>
+  </si>
+  <si>
+    <t>Steps to reproduce: 
+1. Launch 'TextPad'
+2. Go to 'Search' -&gt; 'Find'
+3. Checkboxes have misalignments.
+Expected result:
+There are no misalignments
+Actual result:
+There are misalignments</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -811,7 +1027,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -840,13 +1056,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
@@ -864,10 +1077,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -882,11 +1092,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -897,12 +1107,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normaallaad" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2841,22 +3048,25 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>447674</xdr:rowOff>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>5125151</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>771525</xdr:rowOff>
+      <xdr:colOff>3733800</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>3714750</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Pilt 1">
+        <xdr:cNvPr id="4" name="Рисунок 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA872516-EDFE-45D8-831E-D77FF2427B52}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6AE5ADD-BFA4-5BE4-AB7A-D75061DB55F5}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{EAE83C48-274D-4F7C-B4E0-0533414CAA7A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2872,8 +3082,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1514475" y="3895724"/>
-          <a:ext cx="5020376" cy="323851"/>
+          <a:off x="1476375" y="3486150"/>
+          <a:ext cx="3667125" cy="3676650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2885,22 +3095,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2828924</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>457200</xdr:rowOff>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>571500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>4057649</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>762000</xdr:rowOff>
+      <xdr:colOff>1009650</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>790575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Ristkülik 2">
+        <xdr:cNvPr id="5" name="Прямоугольник 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE83C48-274D-4F7C-B4E0-0533414CAA7A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52BA5FF2-9842-4A9B-B5C7-34EBC932D052}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{D6AE5ADD-BFA4-5BE4-AB7A-D75061DB55F5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2908,8 +3121,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4238624" y="3905250"/>
-          <a:ext cx="1228725" cy="304800"/>
+          <a:off x="1704975" y="4019550"/>
+          <a:ext cx="714375" cy="219075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2933,11 +3146,737 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
+        <a:bodyPr rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
         <a:p>
           <a:pPr algn="l"/>
           <a:endParaRPr lang="et-EE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing27.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3838575</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>3724275</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Рисунок 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0053A1C7-70D8-4299-B0A4-A7ED4F5357C0}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{E52545A4-E209-4508-AE8E-1D47B1D0B691}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1581150" y="3486150"/>
+          <a:ext cx="3667125" cy="3676650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>781050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1047750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Прямоугольник 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C303B55-D148-4AF1-BA3A-8727F41F6397}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{0053A1C7-70D8-4299-B0A4-A7ED4F5357C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1685925" y="4219575"/>
+          <a:ext cx="409575" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="et-EE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing28.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3838575</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>3724275</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96E4C2EC-5131-487B-868B-659F8EE668F2}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{E52545A4-E209-4508-AE8E-1D47B1D0B691}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1581150" y="3486150"/>
+          <a:ext cx="3667125" cy="3676650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1304925</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>781050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2076450</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1047750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Прямоугольник 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78B54EE6-7744-4EA9-BBD6-C3B6E51F86DF}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{96E4C2EC-5131-487B-868B-659F8EE668F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2714625" y="4219575"/>
+          <a:ext cx="771525" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-lt"/>
+            <a:cs typeface="+mn-lt"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing29.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3838575</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>3724275</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91779E7F-1630-4912-8C80-DB3CC1F853CB}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{E52545A4-E209-4508-AE8E-1D47B1D0B691}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1581150" y="3486150"/>
+          <a:ext cx="3667125" cy="3676650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1304925</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>781050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3009900</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1047750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Прямоугольник 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB64B514-5B7E-49EE-8A06-CEF77232772B}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{91779E7F-1630-4912-8C80-DB3CC1F853CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2714625" y="4219575"/>
+          <a:ext cx="1704975" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-lt"/>
+            <a:cs typeface="+mn-lt"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3056,6 +3995,1863 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing30.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3838575</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>3724275</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A639B8B-0863-4103-B785-9B362190CEC1}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{E52545A4-E209-4508-AE8E-1D47B1D0B691}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1581150" y="3486150"/>
+          <a:ext cx="3667125" cy="3676650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1333500</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1047750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1733550</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1314450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Прямоугольник 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EE5A195-5589-427A-BD4B-B8ED706B5E29}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{1A639B8B-0863-4103-B785-9B362190CEC1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2743200" y="4486275"/>
+          <a:ext cx="400050" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-lt"/>
+            <a:cs typeface="+mn-lt"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing31.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3838575</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>3724275</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{506328F7-9174-450C-B1B5-8A1629AC6530}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{E52545A4-E209-4508-AE8E-1D47B1D0B691}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1581150" y="3486150"/>
+          <a:ext cx="3667125" cy="3676650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1333500</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1047750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2990850</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1314450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Прямоугольник 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B83AA760-01E8-4FF3-ADFC-909A1C5F9B03}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{506328F7-9174-450C-B1B5-8A1629AC6530}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2743200" y="4486275"/>
+          <a:ext cx="1657350" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-lt"/>
+            <a:cs typeface="+mn-lt"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing32.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3838575</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>3724275</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15C143AB-6413-467A-9217-BBBDBC65B2C3}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{E52545A4-E209-4508-AE8E-1D47B1D0B691}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1581150" y="3486150"/>
+          <a:ext cx="3667125" cy="3676650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2867025</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>2981325</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3390900</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>3248025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Прямоугольник 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22D3AD35-C42D-4CFA-909D-627ED1BB34AA}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{15C143AB-6413-467A-9217-BBBDBC65B2C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4276725" y="6419850"/>
+          <a:ext cx="523875" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-lt"/>
+            <a:cs typeface="+mn-lt"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing33.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3790950</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>3705225</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Рисунок 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13F9885B-28CD-BF1F-50FD-013D51289902}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{8AD6384E-2BB9-40FB-AC3E-AF3CB62E5522}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1514475" y="3505200"/>
+          <a:ext cx="3686175" cy="3638550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2962275</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>3419475</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3762375</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>3686175</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Прямоугольник 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{522272A6-BCFA-441D-89D2-C7DA6B2DA6EB}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{13F9885B-28CD-BF1F-50FD-013D51289902}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4371975" y="6858000"/>
+          <a:ext cx="800100" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-lt"/>
+            <a:cs typeface="+mn-lt"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing34.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4371975</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>3152775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Рисунок 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDB6B859-CF09-552D-62DA-09D5B614F5BB}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{216F4672-AAA0-432B-96ED-8339DE770CA0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1638300" y="3638550"/>
+          <a:ext cx="4143375" cy="2952750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>2809875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1076325</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>3076575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Прямоугольник 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D996486-BC66-4ADC-B511-90CF525A61E6}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{FDB6B859-CF09-552D-62DA-09D5B614F5BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1685925" y="6248400"/>
+          <a:ext cx="800100" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-lt"/>
+            <a:cs typeface="+mn-lt"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing35.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4371975</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>3152775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EC26EDA-9571-416F-B443-DF445774AD02}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{216F4672-AAA0-432B-96ED-8339DE770CA0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1638300" y="3638550"/>
+          <a:ext cx="4143375" cy="2952750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>2809875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1076325</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>3076575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Прямоугольник 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{536BC8CC-FE3D-4CD1-AA50-73F525143F31}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{5EC26EDA-9571-416F-B443-DF445774AD02}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1685925" y="6248400"/>
+          <a:ext cx="800100" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-lt"/>
+            <a:cs typeface="+mn-lt"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing36.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2667000</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1514475</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Рисунок 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D362C776-4A05-42DD-EC59-ECA0209D5DDC}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{EFCE3925-26F8-49D8-B6E6-257B32E3C056}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1533525" y="3552825"/>
+          <a:ext cx="2543175" cy="1400175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing37.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3810000</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1371600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BF99534-7906-FA50-C024-9C2A017E32B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1647825" y="3724275"/>
+          <a:ext cx="3571875" cy="1085850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1200150</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1143000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2000250</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1409700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Прямоугольник 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48FA64F2-D04E-4695-AB5A-7E8071E02F51}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{7BF99534-7906-FA50-C024-9C2A017E32B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2609850" y="4581525"/>
+          <a:ext cx="800100" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-lt"/>
+            <a:cs typeface="+mn-lt"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing38.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3810000</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1371600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0E901AF-7E29-48C0-A591-B46FE7D0A10B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1647825" y="3724275"/>
+          <a:ext cx="3571875" cy="1085850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1057275</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>581025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3867150</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>885825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Прямоугольник 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27712EDC-F8AA-4FCB-98B3-67631E1176DA}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{C0E901AF-7E29-48C0-A591-B46FE7D0A10B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2466975" y="4019550"/>
+          <a:ext cx="2809875" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-lt"/>
+            <a:cs typeface="+mn-lt"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing39.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2686050</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>323850</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Рисунок 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C08DDE8C-9768-0B81-9F59-F1C49762CC81}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{15C4374B-9CBE-467C-B5AD-474A0E93B29B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1562100" y="4019550"/>
+          <a:ext cx="2533650" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>457200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>895350</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1504950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Рисунок 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A329DE2-D07D-1FE6-AAA0-7E34B2D18148}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{C08DDE8C-9768-0B81-9F59-F1C49762CC81}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1543050" y="4419600"/>
+          <a:ext cx="762000" cy="1047750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -3158,6 +5954,217 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:endParaRPr lang="et-EE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing40.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3505200</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1771650</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Рисунок 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03D6F9EF-27AC-83EE-ADC8-5A51667723CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1524000" y="3400425"/>
+          <a:ext cx="3390900" cy="1704975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1419225</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1343025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2447925</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1676400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Прямоугольник 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62A300EB-C00F-400B-882F-EE6CEDAC1242}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{03D6F9EF-27AC-83EE-ADC8-5A51667723CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2828925" y="4676775"/>
+          <a:ext cx="1028700" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-lt"/>
+            <a:cs typeface="+mn-lt"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3717,7 +6724,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office'i kujundus">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4043,7 +7050,7 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="0" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="44.5703125" customWidth="1"/>
@@ -4052,483 +7059,483 @@
     <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="15" customHeight="1" thickBot="1">
       <c r="A1" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="52.5" customHeight="1">
+      <c r="B2" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+    </row>
+    <row r="3" spans="1:5" ht="52.5" customHeight="1">
+      <c r="B3" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+    </row>
+    <row r="4" spans="1:5" ht="52.5" customHeight="1">
+      <c r="B4" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+    </row>
+    <row r="5" spans="1:5" ht="52.5" customHeight="1">
+      <c r="B5" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+    </row>
+    <row r="6" spans="1:5" ht="52.5" customHeight="1">
+      <c r="B6" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+    </row>
+    <row r="7" spans="1:5" ht="52.5" customHeight="1">
+      <c r="B7" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+    </row>
+    <row r="8" spans="1:5" ht="52.5" customHeight="1">
+      <c r="B8" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+    </row>
+    <row r="9" spans="1:5" ht="52.5" customHeight="1">
+      <c r="B9" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+    </row>
+    <row r="10" spans="1:5" ht="52.5" customHeight="1">
+      <c r="B10" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+    </row>
+    <row r="11" spans="1:5" ht="52.5" customHeight="1">
+      <c r="B11" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+    </row>
+    <row r="12" spans="1:5" ht="52.5" customHeight="1">
+      <c r="B12" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-    </row>
-    <row r="3" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-    </row>
-    <row r="4" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-    </row>
-    <row r="5" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-    </row>
-    <row r="6" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-    </row>
-    <row r="7" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-    </row>
-    <row r="8" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-    </row>
-    <row r="9" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-    </row>
-    <row r="10" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-    </row>
-    <row r="11" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-    </row>
-    <row r="12" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-    </row>
-    <row r="13" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="17" t="s">
+      <c r="C12" s="18"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+    </row>
+    <row r="13" spans="1:5" ht="52.5" customHeight="1">
+      <c r="B13" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="17"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+    </row>
+    <row r="14" spans="1:5" ht="52.5" customHeight="1">
+      <c r="B14" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+    </row>
+    <row r="15" spans="1:5" ht="52.5" customHeight="1">
+      <c r="B15" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+    </row>
+    <row r="16" spans="1:5" ht="52.5" customHeight="1">
+      <c r="B16" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+    </row>
+    <row r="17" spans="2:5" ht="52.5" customHeight="1">
+      <c r="B17" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+    </row>
+    <row r="18" spans="2:5" ht="52.5" customHeight="1">
+      <c r="B18" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+    </row>
+    <row r="19" spans="2:5" ht="52.5" customHeight="1">
+      <c r="B19" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+    </row>
+    <row r="20" spans="2:5" ht="52.5" customHeight="1">
+      <c r="B20" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+    </row>
+    <row r="21" spans="2:5" ht="52.5" customHeight="1">
+      <c r="B21" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-    </row>
-    <row r="14" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-    </row>
-    <row r="15" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-    </row>
-    <row r="16" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-    </row>
-    <row r="17" spans="2:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-    </row>
-    <row r="18" spans="2:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-    </row>
-    <row r="19" spans="2:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-    </row>
-    <row r="20" spans="2:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-    </row>
-    <row r="21" spans="2:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C21" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+    </row>
+    <row r="22" spans="2:5">
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
     </row>
-    <row r="23" spans="2:5" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B23" s="14"/>
+    <row r="23" spans="2:5" ht="18.75">
+      <c r="B23" s="13"/>
       <c r="C23" s="11"/>
     </row>
-    <row r="24" spans="2:5" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B24" s="13"/>
+    <row r="24" spans="2:5" ht="18.75">
+      <c r="B24" s="12"/>
       <c r="C24" s="11"/>
     </row>
-    <row r="25" spans="2:5" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B25" s="13"/>
+    <row r="25" spans="2:5" ht="18.75">
+      <c r="B25" s="12"/>
       <c r="C25" s="11"/>
     </row>
-    <row r="26" spans="2:5" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B26" s="13"/>
+    <row r="26" spans="2:5" ht="18.75">
+      <c r="B26" s="12"/>
       <c r="C26" s="11"/>
     </row>
-    <row r="27" spans="2:5" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B27" s="13"/>
+    <row r="27" spans="2:5" ht="18.75">
+      <c r="B27" s="12"/>
       <c r="C27" s="11"/>
     </row>
-    <row r="28" spans="2:5" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B28" s="13"/>
+    <row r="28" spans="2:5" ht="18.75">
+      <c r="B28" s="12"/>
       <c r="C28" s="11"/>
     </row>
-    <row r="29" spans="2:5" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B29" s="13"/>
+    <row r="29" spans="2:5" ht="18.75">
+      <c r="B29" s="12"/>
       <c r="C29" s="11"/>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="12"/>
+    <row r="30" spans="2:5">
+      <c r="B30" s="11"/>
       <c r="C30" s="11"/>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:5">
       <c r="C31" s="11"/>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:5">
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3">
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3">
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3">
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:3">
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:3">
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:3">
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:3">
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:3">
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:3">
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:3">
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:3">
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:3">
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:3">
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:3">
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:3">
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:3">
       <c r="B48" s="11"/>
       <c r="C48" s="11"/>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:3">
       <c r="B49" s="11"/>
       <c r="C49" s="11"/>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:3">
       <c r="B50" s="11"/>
       <c r="C50" s="11"/>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:3">
       <c r="B51" s="11"/>
       <c r="C51" s="11"/>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:3">
       <c r="B52" s="11"/>
       <c r="C52" s="11"/>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:3">
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:3">
       <c r="B54" s="11"/>
       <c r="C54" s="11"/>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:3">
       <c r="B55" s="11"/>
       <c r="C55" s="11"/>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:3">
       <c r="B56" s="11"/>
       <c r="C56" s="11"/>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:3">
       <c r="B57" s="11"/>
       <c r="C57" s="11"/>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:3">
       <c r="B58" s="11"/>
       <c r="C58" s="11"/>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:3">
       <c r="B59" s="11"/>
       <c r="C59" s="11"/>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:3">
       <c r="B60" s="11"/>
       <c r="C60" s="11"/>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:3">
       <c r="B61" s="11"/>
       <c r="C61" s="11"/>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:3">
       <c r="B62" s="11"/>
       <c r="C62" s="11"/>
     </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:3">
       <c r="B63" s="11"/>
       <c r="C63" s="11"/>
     </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:3">
       <c r="B64" s="11"/>
       <c r="C64" s="11"/>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:3">
       <c r="B65" s="11"/>
       <c r="C65" s="11"/>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:3">
       <c r="B66" s="11"/>
       <c r="C66" s="11"/>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:3">
       <c r="B67" s="11"/>
       <c r="C67" s="11"/>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:3">
       <c r="B68" s="11"/>
       <c r="C68" s="11"/>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:3">
       <c r="B69" s="11"/>
       <c r="C69" s="11"/>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:3">
       <c r="B70" s="11"/>
       <c r="C70" s="11"/>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:3">
       <c r="B71" s="11"/>
       <c r="C71" s="11"/>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:3">
       <c r="B72" s="11"/>
       <c r="C72" s="11"/>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:3">
       <c r="B73" s="11"/>
       <c r="C73" s="11"/>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:3">
       <c r="B74" s="11"/>
       <c r="C74" s="11"/>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:3">
       <c r="B75" s="11"/>
       <c r="C75" s="11"/>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:3">
       <c r="B76" s="11"/>
       <c r="C76" s="11"/>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:3">
       <c r="B77" s="11"/>
       <c r="C77" s="11"/>
     </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:3">
       <c r="B78" s="11"/>
       <c r="C78" s="11"/>
     </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:3">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
     </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:3">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
     </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:3">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:3">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
     </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:3">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
     </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:3">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
     </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:3">
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
     </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:3">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
     </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:3">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
     </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:3">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
     </row>
@@ -4549,72 +7556,72 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="100.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:3" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:3">
       <c r="B2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="26">
+        <v>29</v>
+      </c>
+      <c r="C2" s="24">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3">
       <c r="B3" s="6" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
       <c r="B4" s="6" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
       <c r="B5" s="6" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3">
       <c r="B6" s="6" t="s">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
       <c r="B7" s="6" t="s">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" ht="183" customHeight="1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="183" customHeight="1">
       <c r="B8" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="25" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="2:3" ht="225.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:3" ht="225.75" customHeight="1" thickBot="1">
       <c r="B9" s="8" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="C9" s="4"/>
     </row>
@@ -4635,72 +7642,72 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="100.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:3" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:3">
       <c r="B2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="26">
+        <v>29</v>
+      </c>
+      <c r="C2" s="24">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3">
       <c r="B3" s="6" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
       <c r="B4" s="6" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
       <c r="B5" s="6" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3">
       <c r="B6" s="6" t="s">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
       <c r="B7" s="6" t="s">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="2:3" ht="186.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:3" ht="186.75" customHeight="1">
       <c r="B8" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="25" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="2:3" ht="226.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:3" ht="226.5" customHeight="1" thickBot="1">
       <c r="B9" s="8" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="C9" s="4"/>
     </row>
@@ -4721,72 +7728,72 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="109.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:3" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:3">
       <c r="B2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="26">
+        <v>29</v>
+      </c>
+      <c r="C2" s="24">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3">
       <c r="B3" s="6" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
       <c r="B4" s="6" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
       <c r="B5" s="6" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3">
       <c r="B6" s="6" t="s">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
       <c r="B7" s="6" t="s">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="181.5" customHeight="1">
+      <c r="B8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="25" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="2:3" ht="181.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="27" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" ht="226.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:3" ht="226.5" customHeight="1" thickBot="1">
       <c r="B9" s="8" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="C9" s="4"/>
     </row>
@@ -4807,72 +7814,72 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="109.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:3" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:3">
       <c r="B2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="26">
+        <v>29</v>
+      </c>
+      <c r="C2" s="24">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3">
       <c r="B3" s="6" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
       <c r="B4" s="6" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
       <c r="B5" s="6" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3">
       <c r="B6" s="6" t="s">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
       <c r="B7" s="6" t="s">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" ht="196.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="196.5" customHeight="1">
       <c r="B8" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="25" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="2:3" ht="211.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:3" ht="211.5" customHeight="1" thickBot="1">
       <c r="B9" s="8" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="C9" s="4"/>
     </row>
@@ -4893,72 +7900,72 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="109.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:3" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:3">
       <c r="B2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="26">
+        <v>29</v>
+      </c>
+      <c r="C2" s="24">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3">
       <c r="B3" s="6" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
       <c r="B4" s="6" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
       <c r="B5" s="6" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3">
       <c r="B6" s="6" t="s">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
       <c r="B7" s="6" t="s">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="2:3" ht="196.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:3" ht="196.5" customHeight="1">
       <c r="B8" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="25" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="2:3" ht="211.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:3" ht="211.5" customHeight="1" thickBot="1">
       <c r="B9" s="8" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="C9" s="4"/>
     </row>
@@ -4979,92 +7986,92 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="109.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:3" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:3">
       <c r="B2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="26">
+        <v>29</v>
+      </c>
+      <c r="C2" s="24">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3">
       <c r="B3" s="6" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
       <c r="B4" s="6" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
       <c r="B5" s="6" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3">
       <c r="B6" s="6" t="s">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
       <c r="B7" s="6" t="s">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" ht="196.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="196.5" customHeight="1">
       <c r="B8" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="27" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" ht="211.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="30"/>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C10" s="31"/>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C11" s="31"/>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C12" s="31"/>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C13" s="31"/>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C14" s="31"/>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C15" s="32"/>
+        <v>40</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="211.5" customHeight="1" thickBot="1">
+      <c r="B9" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="28"/>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="C10" s="29"/>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="C11" s="29"/>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="C12" s="29"/>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="C13" s="29"/>
+    </row>
+    <row r="14" spans="2:3">
+      <c r="C14" s="29"/>
+    </row>
+    <row r="15" spans="2:3">
+      <c r="C15" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5086,72 +8093,72 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="100.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:3" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:3">
       <c r="B2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="26">
+        <v>29</v>
+      </c>
+      <c r="C2" s="24">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3">
       <c r="B3" s="6" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
       <c r="B4" s="6" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
       <c r="B5" s="6" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3">
       <c r="B6" s="6" t="s">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
       <c r="B7" s="6" t="s">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" ht="183" customHeight="1" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="183" customHeight="1">
       <c r="B8" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="27" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" ht="225.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="225.75" customHeight="1" thickBot="1">
       <c r="B9" s="8" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="C9" s="4"/>
     </row>
@@ -5172,72 +8179,72 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="109.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:3" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:3">
       <c r="B2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="26">
+        <v>29</v>
+      </c>
+      <c r="C2" s="24">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3">
       <c r="B3" s="6" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
       <c r="B4" s="6" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
       <c r="B5" s="6" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3">
       <c r="B6" s="6" t="s">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
       <c r="B7" s="6" t="s">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" ht="196.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="196.5" customHeight="1">
       <c r="B8" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="27" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" ht="211.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="211.5" customHeight="1" thickBot="1">
       <c r="B9" s="8" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="C9" s="4"/>
     </row>
@@ -5258,72 +8265,72 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="109.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:3" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:3">
       <c r="B2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="26">
+        <v>29</v>
+      </c>
+      <c r="C2" s="24">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3">
       <c r="B3" s="6" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
       <c r="B4" s="6" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
       <c r="B5" s="6" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3">
       <c r="B6" s="6" t="s">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
       <c r="B7" s="6" t="s">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" ht="196.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="196.5" customHeight="1">
       <c r="B8" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="27" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" ht="211.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="211.5" customHeight="1" thickBot="1">
       <c r="B9" s="8" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="C9" s="4"/>
     </row>
@@ -5344,72 +8351,72 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="109.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:3" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:3">
       <c r="B2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="26">
+        <v>29</v>
+      </c>
+      <c r="C2" s="24">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3">
       <c r="B3" s="6" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
       <c r="B4" s="6" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
       <c r="B5" s="6" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3">
       <c r="B6" s="6" t="s">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
       <c r="B7" s="6" t="s">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" ht="181.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="181.5" customHeight="1">
       <c r="B8" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="27" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" ht="226.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="226.5" customHeight="1" thickBot="1">
       <c r="B9" s="8" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="C9" s="4"/>
     </row>
@@ -5430,81 +8437,81 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="82.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:3" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:3" ht="15.75" thickBot="1">
       <c r="B2" s="10" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="15.75" thickBot="1"/>
+    <row r="4" spans="2:3">
       <c r="B4" s="5" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3">
       <c r="B5" s="6" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
       <c r="B6" s="6" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
       <c r="B7" s="6" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
       <c r="B8" s="6" t="s">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
       <c r="B9" s="6" t="s">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" ht="165" customHeight="1" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="165" customHeight="1">
       <c r="B10" s="7" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" ht="256.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" ht="256.5" customHeight="1" thickBot="1">
       <c r="B11" s="8" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="C11" s="4"/>
     </row>
@@ -5526,92 +8533,92 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="109.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:3" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:3">
       <c r="B2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="26">
+        <v>29</v>
+      </c>
+      <c r="C2" s="24">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3">
       <c r="B3" s="6" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
       <c r="B4" s="6" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
       <c r="B5" s="6" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3">
       <c r="B6" s="6" t="s">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
       <c r="B7" s="6" t="s">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" ht="196.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="196.5" customHeight="1">
       <c r="B8" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="25" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="2:3" ht="211.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="30"/>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C10" s="31"/>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C11" s="31"/>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C12" s="31"/>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C13" s="31"/>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C14" s="31"/>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C15" s="32"/>
+    <row r="9" spans="2:3" ht="211.5" customHeight="1" thickBot="1">
+      <c r="B9" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="28"/>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="C10" s="29"/>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="C11" s="29"/>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="C12" s="29"/>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="C13" s="29"/>
+    </row>
+    <row r="14" spans="2:3">
+      <c r="C14" s="29"/>
+    </row>
+    <row r="15" spans="2:3">
+      <c r="C15" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5633,72 +8640,72 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="109.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:3" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:3">
       <c r="B2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="26">
+        <v>29</v>
+      </c>
+      <c r="C2" s="24">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3">
       <c r="B3" s="6" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
       <c r="B4" s="6" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
       <c r="B5" s="6" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3">
       <c r="B6" s="6" t="s">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
       <c r="B7" s="6" t="s">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="2:3" ht="165.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:3" ht="165.75" customHeight="1">
       <c r="B8" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="25" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="2:3" ht="243" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:3" ht="243" customHeight="1" thickBot="1">
       <c r="B9" s="8" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="C9" s="4"/>
     </row>
@@ -5719,72 +8726,72 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="109.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:3" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:3">
       <c r="B2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="26">
+        <v>29</v>
+      </c>
+      <c r="C2" s="24">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3">
       <c r="B3" s="6" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
       <c r="B4" s="6" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
       <c r="B5" s="6" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3">
       <c r="B6" s="6" t="s">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
       <c r="B7" s="6" t="s">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="2:3" ht="165.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:3" ht="165.75" customHeight="1">
       <c r="B8" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="25" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="2:3" ht="243" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:3" ht="243" customHeight="1" thickBot="1">
       <c r="B9" s="8" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="C9" s="4"/>
     </row>
@@ -5805,72 +8812,72 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="109.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:3" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:3">
       <c r="B2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="26">
+        <v>29</v>
+      </c>
+      <c r="C2" s="24">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3">
       <c r="B3" s="6" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
       <c r="B4" s="6" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
       <c r="B5" s="6" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3">
       <c r="B6" s="6" t="s">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
       <c r="B7" s="6" t="s">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="2:3" ht="165.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:3" ht="165.75" customHeight="1">
       <c r="B8" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="25" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="2:3" ht="243" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:3" ht="243" customHeight="1" thickBot="1">
       <c r="B9" s="8" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="C9" s="4"/>
     </row>
@@ -5891,72 +8898,72 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="109.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:3" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:3">
       <c r="B2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="26">
+        <v>29</v>
+      </c>
+      <c r="C2" s="24">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3">
       <c r="B3" s="6" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
       <c r="B4" s="6" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
       <c r="B5" s="6" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3">
       <c r="B6" s="6" t="s">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
       <c r="B7" s="6" t="s">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="2:3" ht="165.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:3" ht="165.75" customHeight="1">
       <c r="B8" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="25" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="2:3" ht="243" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:3" ht="243" customHeight="1" thickBot="1">
       <c r="B9" s="8" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="C9" s="4"/>
     </row>
@@ -5977,72 +8984,72 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="109.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:3" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:3">
       <c r="B2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="26">
+        <v>29</v>
+      </c>
+      <c r="C2" s="24">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3">
       <c r="B3" s="6" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
       <c r="B4" s="6" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
       <c r="B5" s="6" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3">
       <c r="B6" s="6" t="s">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
       <c r="B7" s="6" t="s">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="2:3" ht="165.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:3" ht="165.75" customHeight="1">
       <c r="B8" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="25" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="2:3" ht="243" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:3" ht="243" customHeight="1" thickBot="1">
       <c r="B9" s="8" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="C9" s="4"/>
     </row>
@@ -6063,72 +9070,72 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="109.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:3" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:3">
       <c r="B2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="26">
+        <v>29</v>
+      </c>
+      <c r="C2" s="24">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3">
       <c r="B3" s="6" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
       <c r="B4" s="6" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
       <c r="B5" s="6" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3">
       <c r="B6" s="6" t="s">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
       <c r="B7" s="6" t="s">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="2:3" ht="165.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:3" ht="165.75" customHeight="1">
       <c r="B8" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="25" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="2:3" ht="243" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:3" ht="243" customHeight="1" thickBot="1">
       <c r="B9" s="8" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="C9" s="4"/>
     </row>
@@ -6149,110 +9156,110 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="109.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:3" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:3">
       <c r="B2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="26">
+        <v>29</v>
+      </c>
+      <c r="C2" s="24">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3">
       <c r="B3" s="6" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
       <c r="B4" s="6" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
       <c r="B5" s="6" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3">
       <c r="B6" s="6" t="s">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
       <c r="B7" s="6" t="s">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="165.75" customHeight="1">
+      <c r="B8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="25" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="2:3" ht="165.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="27" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" ht="243" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="30"/>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C10" s="31"/>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C11" s="31"/>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C12" s="31"/>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C13" s="31"/>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C14" s="31"/>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C15" s="31"/>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C16" s="31"/>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C17" s="31"/>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C18" s="31"/>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C19" s="31"/>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C20" s="31"/>
-    </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C21" s="32"/>
+    <row r="9" spans="2:3" ht="243" customHeight="1" thickBot="1">
+      <c r="B9" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="28"/>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="C10" s="29"/>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="C11" s="29"/>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="C12" s="29"/>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="C13" s="29"/>
+    </row>
+    <row r="14" spans="2:3">
+      <c r="C14" s="29"/>
+    </row>
+    <row r="15" spans="2:3">
+      <c r="C15" s="29"/>
+    </row>
+    <row r="16" spans="2:3">
+      <c r="C16" s="29"/>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" s="29"/>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18" s="29"/>
+    </row>
+    <row r="19" spans="3:3">
+      <c r="C19" s="29"/>
+    </row>
+    <row r="20" spans="3:3">
+      <c r="C20" s="29"/>
+    </row>
+    <row r="21" spans="3:3">
+      <c r="C21" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6274,110 +9281,110 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="109.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:3" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:3">
       <c r="B2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="26">
+        <v>29</v>
+      </c>
+      <c r="C2" s="24">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3">
       <c r="B3" s="6" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
       <c r="B4" s="6" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
       <c r="B5" s="6" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3">
       <c r="B6" s="6" t="s">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
       <c r="B7" s="6" t="s">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="2:3" ht="165.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:3" ht="165.75" customHeight="1">
       <c r="B8" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="25" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="9" spans="2:3" ht="150.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="33"/>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C10" s="28"/>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C11" s="28"/>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C12" s="28"/>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C13" s="28"/>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C14" s="28"/>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C15" s="28"/>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C16" s="28"/>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C17" s="28"/>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C18" s="28"/>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C19" s="28"/>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C20" s="28"/>
-    </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C21" s="28"/>
+    <row r="9" spans="2:3" ht="150.75" customHeight="1" thickBot="1">
+      <c r="B9" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="27"/>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="2:3">
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="2:3">
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="2:3">
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="3:3">
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="3:3">
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="3:3">
+      <c r="C21" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6392,114 +9399,114 @@
   </sheetPr>
   <dimension ref="B1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="109.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:3" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:3">
       <c r="B2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="26">
+        <v>29</v>
+      </c>
+      <c r="C2" s="24">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3">
       <c r="B3" s="6" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
       <c r="B4" s="6" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
       <c r="B5" s="6" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3">
       <c r="B6" s="6" t="s">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
       <c r="B7" s="6" t="s">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" ht="165.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="165.75" customHeight="1">
       <c r="B8" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="27" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" ht="150.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="33"/>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C10" s="28"/>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C11" s="28"/>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C12" s="28"/>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C13" s="28"/>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C14" s="28"/>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C15" s="28"/>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C16" s="28"/>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C17" s="28"/>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C18" s="28"/>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C19" s="28"/>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C20" s="28"/>
-    </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C21" s="28"/>
+        <v>40</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="300" customHeight="1" thickBot="1">
+      <c r="B9" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="27"/>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="2:3">
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="2:3">
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="2:3">
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="3:3">
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="3:3">
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="3:3">
+      <c r="C21" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6518,77 +9525,1287 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="101" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:4" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:4">
       <c r="B2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="26">
+        <v>29</v>
+      </c>
+      <c r="C2" s="24">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4">
       <c r="B3" s="6" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
       <c r="B4" s="6" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
       <c r="B5" s="6" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4">
       <c r="B6" s="6" t="s">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
       <c r="B7" s="6" t="s">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" t="s">
         <v>45</v>
       </c>
-      <c r="D7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" ht="165.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="2:4" ht="165.75" customHeight="1">
       <c r="B8" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" ht="243" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="243" customHeight="1" thickBot="1">
       <c r="B9" s="8" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="C9" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{682F78B7-79A2-4BEA-8AFC-039998D67929}">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="B2:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="109.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3">
+      <c r="B2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="24">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
+      <c r="B3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="165.75" customHeight="1">
+      <c r="B8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="300.75" customHeight="1">
+      <c r="B9" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="27"/>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="2:3">
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="2:3">
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="2:3">
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="3:3">
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="3:3">
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="3:3">
+      <c r="C21" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA5EE477-C814-48C4-AEA8-C212EF36DB05}">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="B2:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="109.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3">
+      <c r="B2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="24">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
+      <c r="B3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="165.75" customHeight="1">
+      <c r="B8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="300.75" customHeight="1">
+      <c r="B9" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="27"/>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="2:3">
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="2:3">
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="2:3">
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="3:3">
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="3:3">
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="3:3">
+      <c r="C21" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62600830-DE46-42F9-B73D-8A0FDF6F0016}">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="B2:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="109.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3">
+      <c r="B2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="24">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
+      <c r="B3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="165.75" customHeight="1">
+      <c r="B8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="300.75" customHeight="1">
+      <c r="B9" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="27"/>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="2:3">
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="2:3">
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="2:3">
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="3:3">
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="3:3">
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="3:3">
+      <c r="C21" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4F836B0-F4D9-4766-8DF3-FEFC122BECCF}">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="B2:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="109.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3">
+      <c r="B2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="24">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
+      <c r="B3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="165.75" customHeight="1">
+      <c r="B8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="300.75" customHeight="1">
+      <c r="B9" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="27"/>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="2:3">
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="2:3">
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="2:3">
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="3:3">
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="3:3">
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="3:3">
+      <c r="C21" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74566315-95F7-4985-9104-DA9EFB72B7FB}">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="B2:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="109.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3">
+      <c r="B2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="24">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
+      <c r="B3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="165.75" customHeight="1">
+      <c r="B8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="300.75" customHeight="1">
+      <c r="B9" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="27"/>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="2:3">
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="2:3">
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="2:3">
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="3:3">
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="3:3">
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="3:3">
+      <c r="C21" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54C0023E-3BBC-482E-921E-D475064614D9}">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="B2:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="109.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3">
+      <c r="B2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="24">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
+      <c r="B3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="165.75" customHeight="1">
+      <c r="B8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="300.75" customHeight="1">
+      <c r="B9" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="27"/>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="2:3">
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="2:3">
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="2:3">
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="3:3">
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="3:3">
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="3:3">
+      <c r="C21" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9746F9C8-2DAE-4FD6-84F5-CDD7B92621B6}">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="B2:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="109.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3">
+      <c r="B2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="24">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
+      <c r="B3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="165.75" customHeight="1">
+      <c r="B8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="300.75" customHeight="1">
+      <c r="B9" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="27"/>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="2:3">
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="2:3">
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="2:3">
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="3:3">
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="3:3">
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="3:3">
+      <c r="C21" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02F2DEF2-296B-4C07-8650-D9906273F0C9}">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="B2:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="109.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3">
+      <c r="B2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="24">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
+      <c r="B3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="165.75" customHeight="1">
+      <c r="B8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="300.75" customHeight="1">
+      <c r="B9" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="27"/>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="2:3">
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="2:3">
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="2:3">
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="3:3">
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="3:3">
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="3:3">
+      <c r="C21" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F82AE6A-C5A6-43A1-9674-1DD7ABFE6FB3}">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="B2:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="109.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3">
+      <c r="B2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="24">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
+      <c r="B3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="165.75" customHeight="1">
+      <c r="B8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="300.75" customHeight="1">
+      <c r="B9" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="27"/>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="2:3">
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="2:3">
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="2:3">
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="3:3">
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="3:3">
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="3:3">
+      <c r="C21" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38C1F782-29D8-4E51-A4B0-25A044188EAF}">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
+  <dimension ref="B2:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="109.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3">
+      <c r="B2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="24">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
+      <c r="B3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="165.75" customHeight="1">
+      <c r="B8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="135.75" customHeight="1">
+      <c r="B9" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="27"/>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="2:3">
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="2:3">
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="2:3">
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="3:3">
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="3:3">
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="3:3">
+      <c r="C21" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6604,9 +10821,493 @@
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81AA0501-C2FA-4575-804C-2A22E0A1043C}">
+  <sheetPr>
+    <tabColor rgb="FFA5A5A5"/>
+  </sheetPr>
+  <dimension ref="B2:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="109.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3">
+      <c r="B2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="24">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
+      <c r="B3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="195" customHeight="1">
+      <c r="B8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="135.75" customHeight="1">
+      <c r="B9" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="27"/>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="2:3">
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="2:3">
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="2:3">
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="3:3">
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="3:3">
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="3:3">
+      <c r="C21" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA005C01-3E4D-4FDD-A8D9-3C6E91BCF3A7}">
+  <sheetPr>
+    <tabColor rgb="FFA5A5A5"/>
+  </sheetPr>
+  <dimension ref="B2:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="109.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3">
+      <c r="B2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="24">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
+      <c r="B3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="191.25" customHeight="1">
+      <c r="B8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="135.75" customHeight="1">
+      <c r="B9" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="27"/>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="2:3">
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="2:3">
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="2:3">
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="3:3">
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="3:3">
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="3:3">
+      <c r="C21" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ADAD547-0B7E-4149-892A-4180DC526661}">
+  <sheetPr>
+    <tabColor rgb="FFA5A5A5"/>
+  </sheetPr>
+  <dimension ref="B2:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="109.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3">
+      <c r="B2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="24">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
+      <c r="B3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="207" customHeight="1">
+      <c r="B8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="135.75" customHeight="1">
+      <c r="B9" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="27"/>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="2:3">
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="2:3">
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="2:3">
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="3:3">
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="3:3">
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="3:3">
+      <c r="C21" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FBDCD40-22C2-43CE-BC05-8FC17C43E886}">
+  <sheetPr>
+    <tabColor rgb="FFA5A5A5"/>
+  </sheetPr>
+  <dimension ref="B2:C21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="109.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3">
+      <c r="B2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="24">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
+      <c r="B3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="157.5" customHeight="1">
+      <c r="B8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="150" customHeight="1">
+      <c r="B9" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="27"/>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="2:3">
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="2:3">
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="2:3">
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="3:3">
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="3:3">
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="3:3">
+      <c r="C21" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6616,7 +11317,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6633,72 +11334,72 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="91.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:3" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:3">
       <c r="B2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="26">
+        <v>29</v>
+      </c>
+      <c r="C2" s="24">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3">
       <c r="B3" s="6" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
       <c r="B4" s="6" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
       <c r="B5" s="6" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3">
       <c r="B6" s="6" t="s">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
       <c r="B7" s="6" t="s">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="2:3" ht="180.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:3" ht="180.75" customHeight="1">
       <c r="B8" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" ht="228.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="228.75" customHeight="1" thickBot="1">
       <c r="B9" s="8" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="C9" s="4"/>
     </row>
@@ -6719,72 +11420,72 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="109.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:3" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:3">
       <c r="B2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="26">
+        <v>29</v>
+      </c>
+      <c r="C2" s="24">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3">
       <c r="B3" s="6" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
       <c r="B4" s="6" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
       <c r="B5" s="6" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3">
       <c r="B6" s="6" t="s">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
       <c r="B7" s="6" t="s">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" ht="165.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="165.75" customHeight="1">
       <c r="B8" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="27" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" ht="243" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="243" customHeight="1" thickBot="1">
       <c r="B9" s="8" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="C9" s="4"/>
     </row>
@@ -6805,72 +11506,72 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="91.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:3" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:3">
       <c r="B2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="24">
         <v>5</v>
       </c>
-      <c r="C2" s="26">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="2:3">
       <c r="B3" s="6" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
       <c r="B4" s="6" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
       <c r="B5" s="6" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3">
       <c r="B6" s="6" t="s">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
       <c r="B7" s="6" t="s">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" ht="165.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="165.75" customHeight="1">
       <c r="B8" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="27" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" ht="241.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="241.5" customHeight="1" thickBot="1">
       <c r="B9" s="8" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="C9" s="4"/>
     </row>
@@ -6891,72 +11592,72 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="100.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:3" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:3">
       <c r="B2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="26">
+        <v>29</v>
+      </c>
+      <c r="C2" s="24">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3">
       <c r="B3" s="6" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
       <c r="B4" s="6" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
       <c r="B5" s="6" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3">
       <c r="B6" s="6" t="s">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
       <c r="B7" s="6" t="s">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" ht="168" customHeight="1" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="168" customHeight="1">
       <c r="B8" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="27" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" ht="240.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="240.75" customHeight="1" thickBot="1">
       <c r="B9" s="8" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="C9" s="4"/>
     </row>
@@ -6967,18 +11668,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7096,40 +11797,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F20789A9-57E9-4886-B95B-F2A34AEE83F1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C53E4B81-85CB-4814-992F-9FCD036E17F1}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C53E4B81-85CB-4814-992F-9FCD036E17F1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F20789A9-57E9-4886-B95B-F2A34AEE83F1}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E332EF1-2545-4931-AFE1-846AA95CDFE6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E332EF1-2545-4931-AFE1-846AA95CDFE6}"/>
 </file>